--- a/UNIM2F.BOM.xlsx
+++ b/UNIM2F.BOM.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>Product Name:</t>
   </si>
@@ -69,13 +69,69 @@
     <t>UNIM2F.v1.1-X</t>
   </si>
   <si>
-    <t>Wire</t>
-  </si>
-  <si>
     <t>Manufacturer</t>
   </si>
   <si>
-    <t>Molex</t>
+    <t>350536-1</t>
+  </si>
+  <si>
+    <t>TE Connectivity</t>
+  </si>
+  <si>
+    <t>Female crimp pins</t>
+  </si>
+  <si>
+    <t>Male crimp pins</t>
+  </si>
+  <si>
+    <t>350687-1</t>
+  </si>
+  <si>
+    <t>CONN SOCKET 20-14AWG TIN UMNL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CONN PIN SPLIT 20-14AWG</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CONN PLUG 4POS 94V-0 UNI-MATE</t>
+  </si>
+  <si>
+    <t>4 conductor 18AWG wire</t>
+  </si>
+  <si>
+    <t>350779-1</t>
+  </si>
+  <si>
+    <t>Skywalker</t>
+  </si>
+  <si>
+    <t>SKL2502K</t>
+  </si>
+  <si>
+    <t>Skyline Cable</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Note:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">  -X in part number denotes length of cable to be made (in cm)</t>
+    </r>
+  </si>
+  <si>
+    <t>Length: See part number "-X" field in centimeters</t>
   </si>
 </sst>
 </file>
@@ -85,7 +141,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -174,6 +230,13 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -202,7 +265,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -250,6 +313,8 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -591,24 +656,24 @@
   <dimension ref="A1:P50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.125" customWidth="1"/>
-    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="45.125" customWidth="1"/>
     <col min="3" max="3" width="44.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.125" customWidth="1"/>
     <col min="5" max="5" width="24.875" customWidth="1"/>
     <col min="6" max="6" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.125" customWidth="1"/>
+    <col min="7" max="7" width="64.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="102.875" customWidth="1"/>
     <col min="14" max="14" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -621,7 +686,9 @@
       <c r="F1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="2"/>
+      <c r="G1" s="24" t="s">
+        <v>30</v>
+      </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -704,7 +771,7 @@
         <v>8</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G6" s="21" t="s">
         <v>7</v>
@@ -716,11 +783,15 @@
       <c r="A7" s="14">
         <v>2</v>
       </c>
-      <c r="B7" s="14"/>
+      <c r="B7" s="22" t="s">
+        <v>24</v>
+      </c>
       <c r="C7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="14"/>
+      <c r="D7" s="22" t="s">
+        <v>26</v>
+      </c>
       <c r="E7" s="14"/>
       <c r="F7" s="22" t="s">
         <v>18</v>
@@ -733,35 +804,63 @@
       <c r="A8" s="14">
         <v>1</v>
       </c>
-      <c r="B8" s="14"/>
+      <c r="B8" s="22" t="s">
+        <v>29</v>
+      </c>
       <c r="C8" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="14"/>
+        <v>25</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>28</v>
+      </c>
       <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="F8" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>31</v>
+      </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
+      <c r="A9" s="14">
+        <v>4</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
+      <c r="F9" s="14" t="s">
+        <v>18</v>
+      </c>
       <c r="G9" s="14"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="14"/>
+      <c r="A10" s="12">
+        <v>4</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>21</v>
+      </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="14"/>
+      <c r="F10" s="22" t="s">
+        <v>18</v>
+      </c>
       <c r="G10" s="12"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
